--- a/EHS2019/EHS/ExcelGenerator/Template/eHSU0002_Report_Template.xlsx
+++ b/EHS2019/EHS/ExcelGenerator/Template/eHSU0002_Report_Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ce5-fs01\ehs$\Development\InternalChangeControl\2021\CRE21-005 (Exclude C19 in PPC0002,PPC0003 and U0002)\Front-end\ExcelGenerator\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2310" yWindow="135" windowWidth="9570" windowHeight="10140" tabRatio="487"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Sub Report ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -127,15 +132,23 @@
   </si>
   <si>
     <t>eHS(S)U0002-01: Statistics of transactions and units of EHCP from [%Period_From%] to [%Period_To%] broken down by means of input</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRE21-005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>To exclude claim transactions related to COVID-19 vaccine subsidies in PPC0002, PPC0003, eHS(S)U0002</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -207,11 +220,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -232,7 +245,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -241,7 +254,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
@@ -250,7 +263,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -259,20 +272,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -284,6 +306,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +392,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -652,32 +677,32 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" spans="1:12" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -746,41 +771,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.75" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="18" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.75" style="18" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -792,9 +817,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -875,6 +902,20 @@
         <v>42430</v>
       </c>
     </row>
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="24">
+        <v>44351</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
